--- a/tests/testData.xlsx
+++ b/tests/testData.xlsx
@@ -85,6 +85,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">$F{prm_</t>
     </r>
@@ -108,127 +109,144 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">$F{prm_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">cost_to_ltr}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$Each{prm_stock_tran}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$F{material_name}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$F{</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">qty}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$F{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rate}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$F{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">amt}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$F{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pcnt}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Primary Materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Raw Materials Consumed</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">prm_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">cost_to_ltr}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$Each{prm_stock_tran}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$F{material_name}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">$F{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">qty}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">$F{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">rate}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">$F{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">amt}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">$F{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pcnt}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Primary Materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Raw Materials Consumed</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$F{orm_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rm_val}</t>
+    </r>
   </si>
   <si>
     <r>
@@ -239,27 +257,49 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">$F{o</t>
-    </r>
+      <t xml:space="preserve">$F{orm_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ltr_rate}</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">rm_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">rm_val}</t>
-    </r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$F{orm_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">cost_to_ltr}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">$Each{orm_stock_tran}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Other Raw Materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packing Materials Consumed</t>
   </si>
   <si>
     <r>
@@ -268,18 +308,19 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">$F{orm_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ltr_rate}</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$F{pm_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rm_val}</t>
     </r>
   </si>
   <si>
@@ -291,108 +332,29 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">$F{</t>
-    </r>
+      <t xml:space="preserve">$F{pm_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ltr_rate}</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">orm_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">cost_to_ltr}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">$Each{orm_stock_tran}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Other Raw Materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Packing Materials Consumed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$F{p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">m_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">rm_val}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">$F{pm_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ltr_rate}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$F{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">pm_</t>
     </r>
     <r>
       <rPr>
@@ -459,11 +421,12 @@
     <numFmt numFmtId="167" formatCode="#,##0"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -506,12 +469,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF8D281E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -544,12 +501,6 @@
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -677,7 +628,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -698,59 +649,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -762,87 +709,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -923,13 +866,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.43"/>
   </cols>
@@ -992,7 +935,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="e">
+        <f aca="false">$f{prod_qty}+$f{prm_rm_val}</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
@@ -1023,398 +969,408 @@
       <c r="F7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A8" s="16" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A9" s="18" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A10" s="18" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A11" s="23" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25" t="n">
-        <f aca="false">SUM(D9:D10)</f>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="n">
+        <f aca="false">SUM(D9:D11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="26" t="n">
+      <c r="E12" s="24" t="n">
         <f aca="false">SUM(E9:E10)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="13" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="28" t="n">
-        <f aca="false">SUM(D15:D16)</f>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="26" t="n">
+        <f aca="false">SUM(D16:D17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <f aca="false">SUM(E15:E16)</f>
+      <c r="E18" s="27" t="n">
+        <f aca="false">SUM(E16:E17)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="13" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="28" t="n">
-        <f aca="false">SUM(D21:D22)</f>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="26" t="n">
+        <f aca="false">SUM(D22:D23)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <f aca="false">SUM(E21:E22)</f>
+      <c r="E24" s="27" t="n">
+        <f aca="false">SUM(E22:E23)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33" t="n">
-        <f aca="false">SUM(F7:F24)</f>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31" t="n">
+        <f aca="false">SUM(F7:F25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="33" t="n">
-        <f aca="false">SUM(G7:G24)</f>
+      <c r="G26" s="31" t="n">
+        <f aca="false">SUM(G7:G25)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="34" t="n">
-        <f aca="false">SUM(H7:H24)</f>
+      <c r="H26" s="32" t="n">
+        <f aca="false">SUM(H7:H25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-    </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="37" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D29" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E29" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="37" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D30" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E30" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
-      <c r="B30" s="39" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16"/>
+      <c r="B31" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="40" t="n">
-        <f aca="false">SUM(C28:C29)</f>
+      <c r="C31" s="38" t="n">
+        <f aca="false">SUM(C29:C30)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="41" t="n">
-        <f aca="false">SUM(D28:D29)</f>
+      <c r="D31" s="39" t="n">
+        <f aca="false">SUM(D29:D30)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="40" t="e">
-        <f aca="false">D30/C30</f>
+      <c r="E31" s="38" t="e">
+        <f aca="false">D31/C31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
